--- a/Inputs/IMG_ROW/info.xlsx
+++ b/Inputs/IMG_ROW/info.xlsx
@@ -64,25 +64,7 @@
     <t xml:space="preserve">Img_Global_Prima</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Dental/Maternity (Consultations, Scans and Delivery)/New Born Cover/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pre-existing Condition Cover</t>
-    </r>
+    <t xml:space="preserve">Dental/Maternity (Consultations, Scans and Delivery)/New Born Cover/Pre-existing Condition Cover/Maternity Waiting Period/Complications of Pregnancy/Dental Waiting Period</t>
   </si>
 </sst>
 </file>
@@ -94,7 +76,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -128,12 +110,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -213,7 +189,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -300,7 +276,7 @@
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.36"/>
@@ -334,7 +310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="32.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>

--- a/Inputs/IMG_ROW/info.xlsx
+++ b/Inputs/IMG_ROW/info.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">AbuDhabi/</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-11-01</t>
+    <t xml:space="preserve">2025-04-01</t>
   </si>
   <si>
     <t xml:space="preserve">USD</t>
@@ -272,11 +272,11 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.36"/>
